--- a/Molecular Structures Real/Table of Aouidate data.xlsx
+++ b/Molecular Structures Real/Table of Aouidate data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/themarchhare/Documents/Mathematica Seminar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/themarchhare/Documents/GitHub/Project/Molecular Structures Real/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3065,11 +3065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1873806272"/>
-        <c:axId val="1872051168"/>
+        <c:axId val="825460240"/>
+        <c:axId val="825462560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1873806272"/>
+        <c:axId val="825460240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -3126,12 +3126,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872051168"/>
+        <c:crossAx val="825462560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1872051168"/>
+        <c:axId val="825462560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3151,6 +3151,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3187,7 +3188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873806272"/>
+        <c:crossAx val="825460240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3644,11 +3645,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1873814080"/>
-        <c:axId val="1873815712"/>
+        <c:axId val="825484848"/>
+        <c:axId val="710781568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1873814080"/>
+        <c:axId val="825484848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,12 +3705,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873815712"/>
+        <c:crossAx val="710781568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1873815712"/>
+        <c:axId val="710781568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3765,7 +3766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873814080"/>
+        <c:crossAx val="825484848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3859,7 +3860,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3934,7 +3934,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4269,11 +4268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1872096704"/>
-        <c:axId val="1872099184"/>
+        <c:axId val="711837120"/>
+        <c:axId val="711540240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1872096704"/>
+        <c:axId val="711837120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4293,6 +4292,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4329,12 +4329,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872099184"/>
+        <c:crossAx val="711540240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1872099184"/>
+        <c:axId val="711540240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,7 +4390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872096704"/>
+        <c:crossAx val="711837120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4479,7 +4479,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4844,11 +4843,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1873374624"/>
-        <c:axId val="1873376672"/>
+        <c:axId val="824508304"/>
+        <c:axId val="824510352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1873374624"/>
+        <c:axId val="824508304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4904,12 +4903,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873376672"/>
+        <c:crossAx val="824510352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1873376672"/>
+        <c:axId val="824510352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4965,7 +4964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873374624"/>
+        <c:crossAx val="824508304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5054,7 +5053,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5469,11 +5467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1873404288"/>
-        <c:axId val="1873406768"/>
+        <c:axId val="824528496"/>
+        <c:axId val="824530976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1873404288"/>
+        <c:axId val="824528496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5530,12 +5528,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873406768"/>
+        <c:crossAx val="824530976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1873406768"/>
+        <c:axId val="824530976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5591,7 +5589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873404288"/>
+        <c:crossAx val="824528496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5680,7 +5678,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6095,11 +6092,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1873430032"/>
-        <c:axId val="1873432512"/>
+        <c:axId val="824555120"/>
+        <c:axId val="824557600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1873430032"/>
+        <c:axId val="824555120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6155,12 +6152,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873432512"/>
+        <c:crossAx val="824557600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1873432512"/>
+        <c:axId val="824557600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6216,7 +6213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873430032"/>
+        <c:crossAx val="824555120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6305,7 +6302,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6670,11 +6666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1795138944"/>
-        <c:axId val="1795140992"/>
+        <c:axId val="824575456"/>
+        <c:axId val="824577936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1795138944"/>
+        <c:axId val="824575456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6730,12 +6726,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1795140992"/>
+        <c:crossAx val="824577936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1795140992"/>
+        <c:axId val="824577936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6791,7 +6787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1795138944"/>
+        <c:crossAx val="824575456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6880,7 +6876,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7295,11 +7290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1873844976"/>
-        <c:axId val="1873847456"/>
+        <c:axId val="824605312"/>
+        <c:axId val="824607792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1873844976"/>
+        <c:axId val="824605312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7355,12 +7350,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873847456"/>
+        <c:crossAx val="824607792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1873847456"/>
+        <c:axId val="824607792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7416,7 +7411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873844976"/>
+        <c:crossAx val="824605312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7480,7 +7475,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7555,7 +7549,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7890,11 +7883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1911865168"/>
-        <c:axId val="1908093680"/>
+        <c:axId val="824630496"/>
+        <c:axId val="824632976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1911865168"/>
+        <c:axId val="824630496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.5"/>
@@ -7951,12 +7944,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1908093680"/>
+        <c:crossAx val="824632976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1908093680"/>
+        <c:axId val="824632976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8012,7 +8005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1911865168"/>
+        <c:crossAx val="824630496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13611,7 +13604,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Molecular Structures Real/Table of Aouidate data.xlsx
+++ b/Molecular Structures Real/Table of Aouidate data.xlsx
@@ -13604,7 +13604,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
